--- a/BAOdev/OntoRatInputFiles/detection_instrument_dev.xlsx
+++ b/BAOdev/OntoRatInputFiles/detection_instrument_dev.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
   <si>
     <t>Term ID</t>
   </si>
@@ -217,13 +217,142 @@
   </si>
   <si>
     <t>One of several models of luminometer, either single-tube to multiple plate readers (Promega). Some models are multimode and can also read fluorescence or absorbance in addition to luminescence )</t>
+  </si>
+  <si>
+    <t>LTQ-Orbitrap Velos (Thermo Scientific)</t>
+  </si>
+  <si>
+    <t>A mass spectrometer</t>
+  </si>
+  <si>
+    <t>Appled Biosystems Real-Time PCR System (ThermoFisher)</t>
+  </si>
+  <si>
+    <t>Encompasses various models--ABI-9300, ABI-7500, and  QuantStudio.</t>
+  </si>
+  <si>
+    <t>Agilent 1100 series LC-MSD SL</t>
+  </si>
+  <si>
+    <t>VE-2 whole-cell patch clamp amplifier (Alembic Instruments)</t>
+  </si>
+  <si>
+    <t>micro-Quant Plate Reader (BioTek)</t>
+  </si>
+  <si>
+    <t>A microplate spectrophotometer</t>
+  </si>
+  <si>
+    <t>SpectraMax Gemini XS microplate fluorometer (Molecular Devices)</t>
+  </si>
+  <si>
+    <t>Typhoon FLA 9000 laser scanner (GE Healthcare)</t>
+  </si>
+  <si>
+    <t>Fluoroskan Ascent FL Microplate Fluorometer and Luminometer (ThermoFisher)</t>
+  </si>
+  <si>
+    <t>iMIC platform/ Polychrome V imaging system, (TILL Photonics/ FEI Munic GmbH)</t>
+  </si>
+  <si>
+    <t>imaging cytometer</t>
+  </si>
+  <si>
+    <t>Infinte M200 plate reader (Tecan)</t>
+  </si>
+  <si>
+    <t>Multiskan EX plate reader (Thermo Scientific)</t>
+  </si>
+  <si>
+    <t>Wallac 1420 (Victor2) Microplate reader (PerkinElmer)</t>
+  </si>
+  <si>
+    <t>SpectraFluor Plus Microplate Reader (Tecan)</t>
+  </si>
+  <si>
+    <t>TSQ Quantum Triple Quadrupole LC-MS (Thermo Scientific)</t>
+  </si>
+  <si>
+    <t>Typhoon Trio variable-mode imager (Amersham/ GE LifeSciences)</t>
+  </si>
+  <si>
+    <t>A laser-based scanner that produces digital images of radioactive, fluorescent, or chemiluminescent samples</t>
+  </si>
+  <si>
+    <t>IN Cell Analyzer 1000</t>
+  </si>
+  <si>
+    <t>https://www.gelifesciences.com/gehcls_images/GELS/Related%20Content/Files/1314742967685/litdoc28402704_20110831020220.pdf</t>
+  </si>
+  <si>
+    <t>xCELLigence RTCA DP cellular impedance instrument (Acea Biosciences)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The xCELLigence RTCA DP instrument uses noninvasive electrical impedance monitoring to quantify cell proliferation, morphology change, and attachment quality in a label-free, real-time manner. </t>
+  </si>
+  <si>
+    <t>http://www.aceabio.com/product/rtca-dp/</t>
+  </si>
+  <si>
+    <t>BAO_0150067</t>
+  </si>
+  <si>
+    <t>BAO_0150068</t>
+  </si>
+  <si>
+    <t>BAO_0150069</t>
+  </si>
+  <si>
+    <t>BAO_0150070</t>
+  </si>
+  <si>
+    <t>BAO_0150071</t>
+  </si>
+  <si>
+    <t>BAO_0150072</t>
+  </si>
+  <si>
+    <t>BAO_0150073</t>
+  </si>
+  <si>
+    <t>BAO_0150074</t>
+  </si>
+  <si>
+    <t>BAO_0150075</t>
+  </si>
+  <si>
+    <t>BAO_0150076</t>
+  </si>
+  <si>
+    <t>BAO_0150077</t>
+  </si>
+  <si>
+    <t>BAO_0150078</t>
+  </si>
+  <si>
+    <t>BAO_0150079</t>
+  </si>
+  <si>
+    <t>BAO_0150080</t>
+  </si>
+  <si>
+    <t>BAO_0150081</t>
+  </si>
+  <si>
+    <t>BAO_0150082</t>
+  </si>
+  <si>
+    <t>BAO_0150083</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002937</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -244,6 +373,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -282,11 +417,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -313,9 +450,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -645,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1133,6 +1277,413 @@
       <c r="H16" s="11"/>
       <c r="I16" s="13">
         <v>42522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="75">
+      <c r="A17" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17">
+        <v>602339</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17" s="15">
+        <v>42551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="120">
+      <c r="A18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18">
+        <v>540282</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18" s="15">
+        <v>42573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45">
+      <c r="A19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <v>602415</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19" s="15">
+        <v>42551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30">
+      <c r="A20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>2692</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" s="14"/>
+      <c r="H20"/>
+      <c r="I20" s="15">
+        <v>42555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60">
+      <c r="A21" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21">
+        <v>624061</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21" s="15">
+        <v>42561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30">
+      <c r="A22" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22">
+        <v>651896</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22" s="14"/>
+      <c r="H22"/>
+      <c r="I22" s="15">
+        <v>42562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30">
+      <c r="A23" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>602172</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23" s="14"/>
+      <c r="H23"/>
+      <c r="I23" s="15">
+        <v>42552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30">
+      <c r="A24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24">
+        <v>720723</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24" s="14"/>
+      <c r="H24"/>
+      <c r="I24" s="15">
+        <v>42563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25">
+        <v>2719</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25" s="14"/>
+      <c r="H25"/>
+      <c r="I25" s="15">
+        <v>42555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30">
+      <c r="A26" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26">
+        <v>602457</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26" s="14"/>
+      <c r="H26"/>
+      <c r="I26" s="15">
+        <v>42553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30">
+      <c r="A27" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>720722</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27" s="14"/>
+      <c r="H27"/>
+      <c r="I27" s="15">
+        <v>42563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28">
+        <v>1061</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" s="14"/>
+      <c r="H28"/>
+      <c r="I28" s="15">
+        <v>42569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30">
+      <c r="A29" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29">
+        <v>1745</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" s="14"/>
+      <c r="H29"/>
+      <c r="I29" s="15">
+        <v>42571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30">
+      <c r="A30" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30">
+        <v>602143</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" s="14"/>
+      <c r="H30"/>
+      <c r="I30" s="15">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="195">
+      <c r="A31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31">
+        <v>623937</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31" s="15">
+        <v>42570</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30">
+      <c r="A32" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32">
+        <v>456</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32" s="14"/>
+      <c r="H32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="15">
+        <v>42566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="315">
+      <c r="A33" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33">
+        <v>602291</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="15">
+        <v>42573</v>
       </c>
     </row>
   </sheetData>
@@ -1152,6 +1703,23 @@
     <hyperlink ref="E3" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
     <hyperlink ref="E2" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
     <hyperlink ref="E16" r:id="rId1" location="BAO_0000697"/>
+    <hyperlink ref="E17" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
+    <hyperlink ref="E18" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
+    <hyperlink ref="E19" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
+    <hyperlink ref="E20" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
+    <hyperlink ref="E21" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
+    <hyperlink ref="E22" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
+    <hyperlink ref="E23" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
+    <hyperlink ref="E24" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
+    <hyperlink ref="E26" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
+    <hyperlink ref="E27" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
+    <hyperlink ref="E28" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
+    <hyperlink ref="E29" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
+    <hyperlink ref="E30" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
+    <hyperlink ref="E31" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
+    <hyperlink ref="E33" location="BAO_0000697" display="http://www.bioassayontology.org/bao#BAO_0000697"/>
+    <hyperlink ref="E32" r:id="rId2" location="BAO_0002937"/>
+    <hyperlink ref="E25" r:id="rId3" location="BAO_0002937"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
